--- a/CashFlow/VRSK_cashflow.xlsx
+++ b/CashFlow/VRSK_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1414000000.0</v>
+        <v>24300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1382000000.0</v>
+        <v>-13900000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1173600000.0</v>
+        <v>107400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>879500000.0</v>
+        <v>124700000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>527700000.0</v>
+        <v>150900000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>173000000.0</v>
